--- a/tests/data/output/一级报告详情测试用例-13001_result.xlsx
+++ b/tests/data/output/一级报告详情测试用例-13001_result.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"戈婷婷","id_card_no":"150300193902147822","phone":"15861095500"}</t>
+          <t>{"user_name":"盛丽","id_card_no":"33032419920722789X","phone":"15922660346"}</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"湛建国","id_card_no":"513423194902111955","phone":"13703306283"}</t>
+          <t>{"user_name":"管健","id_card_no":"360601196311265005","phone":"18248112753"}</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"姚军","id_card_no":"653226199409225942","phone":"13127004243"}</t>
+          <t>{"user_name":"于岩","id_card_no":"13062219470501839X","phone":"15878735207"}</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"沃坤","id_card_no":"621123195106297439","phone":"15836009683"}</t>
+          <t>{"user_name":"亢玉兰","id_card_no":"130110198610186812","phone":"15001077629"}</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"程晶","id_card_no":"220881197912279572","phone":"15103132570"}</t>
+          <t>{"user_name":"师丽娟","id_card_no":"510683196401262548","phone":"13327091647"}</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sms_loan_amout_avg=3.20W</t>
+          <t>sms_loan_amout_avg=3.2W</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"台萍","id_card_no":"510311198804111411","phone":"13651722131"}</t>
+          <t>{"user_name":"余婷婷","id_card_no":"210600193402021791","phone":"18803385696"}</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"寇淑兰","id_card_no":"532502198906226420","phone":"13307371560"}</t>
+          <t>{"user_name":"百文","id_card_no":"440105193002263131","phone":"15530983578"}</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"孔亮","id_card_no":"431228196309098911","phone":"15992617360"}</t>
+          <t>{"user_name":"龚涛","id_card_no":"410711197901265424","phone":"13822985968"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级报告详情测试用例-13001_result.xlsx
+++ b/tests/data/output/一级报告详情测试用例-13001_result.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"盛丽","id_card_no":"33032419920722789X","phone":"15922660346"}</t>
+          <t>{"user_name":"上东","id_card_no":"54022619300428106X","phone":"13837176684"}</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"管健","id_card_no":"360601196311265005","phone":"18248112753"}</t>
+          <t>{"user_name":"施桂香","id_card_no":"152527193606158298","phone":"13887728673"}</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"于岩","id_card_no":"13062219470501839X","phone":"15878735207"}</t>
+          <t>{"user_name":"习健","id_card_no":"230300195112231797","phone":"18989163907"}</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"亢玉兰","id_card_no":"130110198610186812","phone":"15001077629"}</t>
+          <t>{"user_name":"广俊","id_card_no":"33032419530804762X","phone":"18786603192"}</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"师丽娟","id_card_no":"510683196401262548","phone":"13327091647"}</t>
+          <t>{"user_name":"匡莉","id_card_no":"330211195302011637","phone":"14525885942"}</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"余婷婷","id_card_no":"210600193402021791","phone":"18803385696"}</t>
+          <t>{"user_name":"养婷","id_card_no":"110117194009125616","phone":"15006982586"}</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"百文","id_card_no":"440105193002263131","phone":"15530983578"}</t>
+          <t>{"user_name":"殷龙","id_card_no":"450123195901298147","phone":"13450877001"}</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"龚涛","id_card_no":"410711197901265424","phone":"13822985968"}</t>
+          <t>{"user_name":"凌红","id_card_no":"430500193511154011","phone":"14595398101"}</t>
         </is>
       </c>
     </row>
